--- a/DataPulseUserAdminSeleniumFramework/src/main/java/Resources/testdata.xlsx
+++ b/DataPulseUserAdminSeleniumFramework/src/main/java/Resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince Pineda\IdeaProjects\RequestorFramework\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princeanriepineda/GitCary/DataPulseUserAdminSeleniumFramework/src/main/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10716CE3-79F2-4E51-9723-397323796CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E92A557-0F2A-6B4E-8385-319AFA8E316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="700" windowWidth="16850" windowHeight="9380" firstSheet="3" activeTab="5" xr2:uid="{BF2D472F-0CDB-43F0-92A8-5C998C2F0062}"/>
+    <workbookView xWindow="1960" yWindow="700" windowWidth="16860" windowHeight="9380" firstSheet="1" activeTab="5" xr2:uid="{BF2D472F-0CDB-43F0-92A8-5C998C2F0062}"/>
   </bookViews>
   <sheets>
     <sheet name="FOP2_000_005" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>UsernameVIV</t>
   </si>
@@ -55,30 +55,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>formulaone.resourcemanager@stratpoint.com</t>
-  </si>
-  <si>
     <t>F1_ResourceManager</t>
   </si>
   <si>
-    <t>formulaone.requestor@stratpoint.com</t>
-  </si>
-  <si>
     <t>F1_Requestor</t>
   </si>
   <si>
-    <t>formulaone.recruitment@stratpoint.com</t>
-  </si>
-  <si>
-    <t>F1_Recruitment</t>
-  </si>
-  <si>
-    <t>formulaone.em@stratpoint.com</t>
-  </si>
-  <si>
-    <t>F1_EngagementManager</t>
-  </si>
-  <si>
     <t>abcd1234$$$###%%</t>
   </si>
   <si>
@@ -172,28 +154,13 @@
     <t>PasswordI</t>
   </si>
   <si>
-    <t>fordemo1234</t>
-  </si>
-  <si>
-    <t>princeanrie.pineda@stratpoint.com</t>
-  </si>
-  <si>
     <t>Searchuser</t>
   </si>
   <si>
-    <t>Prince Anrie Pineda</t>
-  </si>
-  <si>
     <t>Changerole1</t>
   </si>
   <si>
     <t>Changerole2</t>
-  </si>
-  <si>
-    <t>Engagement Manager</t>
-  </si>
-  <si>
-    <t>Resource Manager</t>
   </si>
 </sst>
 </file>
@@ -560,18 +527,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,72 +552,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{44313EC3-BE0F-43C0-AB0B-1FCF3657CDB4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FA1140-F012-48DF-A6FC-50B1F029EE36}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -658,97 +564,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC7294-D6DE-467C-B7F4-022A44E9CA15}">
-  <dimension ref="A1:K2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FA1140-F012-48DF-A6FC-50B1F029EE36}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -756,27 +591,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC7294-D6DE-467C-B7F4-022A44E9CA15}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF6E05E-8131-4816-ABB3-7BA24D43C863}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -784,48 +714,42 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -835,32 +759,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188D77D-7CA8-4120-83FF-3E44BFE6EAF3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -870,24 +786,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EB62A8-4E75-47FA-93E6-27414ECAB4FC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -895,42 +811,19 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
